--- a/MarsFramework/ExcelData/TestDataShareSkill.xlsx
+++ b/MarsFramework/ExcelData/TestDataShareSkill.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OEM\Desktop\MVP studio\marsframework-master (1)\marsframework-master\MarsFramework\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F6A290D-DF62-4E58-8618-2AA8A6852A5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{760F8B4A-4AAC-4DE5-ACBD-57ECFC69DD9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SignUp" sheetId="3" r:id="rId1"/>
@@ -605,7 +605,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -653,8 +653,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -747,7 +747,7 @@
         <v>43567</v>
       </c>
       <c r="I2" s="3">
-        <v>43597</v>
+        <v>44491</v>
       </c>
       <c r="J2" s="3" t="s">
         <v>36</v>
